--- a/qa/01.测试用例/交互系统/IM系统设计/IM系统测试.xlsx
+++ b/qa/01.测试用例/交互系统/IM系统设计/IM系统测试.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="UI逻辑" sheetId="2" r:id="rId2"/>
     <sheet name="聊天频道与提示" sheetId="5" r:id="rId3"/>
-    <sheet name="多语言" sheetId="6" r:id="rId4"/>
-    <sheet name="备注" sheetId="3" r:id="rId5"/>
-    <sheet name="im" sheetId="4" r:id="rId6"/>
+    <sheet name="UI测试" sheetId="7" r:id="rId4"/>
+    <sheet name="多语言" sheetId="6" r:id="rId5"/>
+    <sheet name="备注" sheetId="3" r:id="rId6"/>
+    <sheet name="im" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="775">
   <si>
     <t>更新日期</t>
   </si>
@@ -2022,10 +2023,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>样式如图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>查看的玩家设置头像为A，该玩家在线</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2315,14 +2312,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>玩家屏蔽名单已满</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家屏蔽名单未满</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>屏蔽失败，提示im_record_004</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2471,10 +2460,6 @@
   </si>
   <si>
     <t>接趣加的翻译接口的测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽数量具体测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2797,9 +2782,6 @@
   </si>
   <si>
     <t>屏蔽聊天成功</t>
-  </si>
-  <si>
-    <t>屏蔽聊天成功</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -2949,9 +2931,6 @@
   <si>
     <t>Confirm block chat?</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>（可以在系统设置取消屏蔽）</t>
   </si>
   <si>
     <t>(Blocked chats can be managed in system settings)</t>
@@ -3001,32 +2980,64 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100汉字，达到后不可继续输入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端：4319
+服务器：4153</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式如图，模态显示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Block list is full. Please clear some blocked chats in System Settings, and try again.</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>100汉字，达到后不可继续输入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端：4319
-服务器：4153</t>
+    <t>屏蔽聊天成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>（可以在系统设置取消屏蔽）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例整理，修正</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家屏蔽名单已满（50个）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家屏蔽名单未满（不足50个）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3034,7 +3045,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3195,8 +3206,15 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3248,6 +3266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3338,7 +3362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3519,6 +3543,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3526,7 +3569,1463 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="常规 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="269">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4470,8 +5969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B22:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4522,20 +6021,26 @@
         <v>42291</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="34" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>42333</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="E25" s="10"/>
       <c r="F25" s="15"/>
     </row>
@@ -4550,10 +6055,10 @@
   <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D237" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J229" sqref="J229"/>
+      <selection pane="bottomRight" activeCell="J238" sqref="J238:J239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -4614,7 +6119,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
@@ -4652,7 +6157,7 @@
         <v>62</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4663,7 +6168,7 @@
         <v>35</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4680,18 +6185,18 @@
         <v>30</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="73" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4702,7 +6207,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I8" s="17">
         <v>840</v>
@@ -4722,18 +6227,18 @@
         <v>40</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="73" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4750,7 +6255,7 @@
         <v>59</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4761,7 +6266,7 @@
         <v>60</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4787,7 +6292,7 @@
         <v>49</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4797,7 +6302,9 @@
       <c r="G15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="52"/>
+      <c r="H15" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="17" t="s">
@@ -4806,7 +6313,9 @@
       <c r="G16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="52"/>
+      <c r="H16" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D17" s="31">
@@ -4819,7 +6328,7 @@
         <v>53</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="I17" s="17">
         <v>841</v>
@@ -4845,7 +6354,9 @@
       <c r="G19" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="52"/>
+      <c r="H19" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F20" s="17" t="s">
@@ -4855,7 +6366,7 @@
         <v>69</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -4865,7 +6376,9 @@
       <c r="G21" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="H21" s="52"/>
+      <c r="H21" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F22" s="17" t="s">
@@ -4875,7 +6388,7 @@
         <v>70</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -4892,7 +6405,7 @@
         <v>76</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -4903,7 +6416,7 @@
         <v>73</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I24" s="17">
         <v>844</v>
@@ -4916,7 +6429,9 @@
       <c r="G25" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="52"/>
+      <c r="H25" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D26" s="31">
@@ -4940,7 +6455,9 @@
       <c r="G27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F28" s="17" t="s">
@@ -4949,7 +6466,9 @@
       <c r="G28" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="52"/>
+      <c r="H28" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D29" s="31">
@@ -4962,38 +6481,38 @@
         <v>84</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I29" s="17">
         <v>844</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="52"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="52"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="52"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D33" s="31">
@@ -5009,7 +6528,7 @@
         <v>89</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -5023,7 +6542,7 @@
         <v>82</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -5037,7 +6556,7 @@
         <v>91</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -5063,7 +6582,7 @@
         <v>99</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5074,7 +6593,7 @@
         <v>100</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -5085,7 +6604,7 @@
         <v>101</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -5096,7 +6615,7 @@
         <v>102</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="29" x14ac:dyDescent="0.25">
@@ -5113,7 +6632,7 @@
         <v>106</v>
       </c>
       <c r="H41" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5124,7 +6643,7 @@
         <v>107</v>
       </c>
       <c r="H42" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5135,44 +6654,44 @@
         <v>55</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D44" s="31">
         <v>1</v>
       </c>
       <c r="E44" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>651</v>
-      </c>
       <c r="H44" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F45" s="17" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F46" s="17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5200,7 +6719,7 @@
         <v>115</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -5214,7 +6733,7 @@
         <v>118</v>
       </c>
       <c r="H50" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I50" s="17">
         <v>846</v>
@@ -5227,44 +6746,44 @@
       <c r="E51" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="33" t="s">
         <v>152</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F52" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="33" t="s">
         <v>151</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F53" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F54" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="33" t="s">
         <v>122</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -5277,22 +6796,22 @@
       <c r="F55" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="33" t="s">
         <v>127</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F56" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="30" t="s">
+      <c r="G56" s="33" t="s">
         <v>34</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -5302,11 +6821,11 @@
       <c r="E57" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="33" t="s">
         <v>147</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -5319,11 +6838,11 @@
       <c r="F58" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="33" t="s">
         <v>129</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I58" s="17">
         <v>847</v>
@@ -5333,11 +6852,11 @@
       <c r="F59" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="33" t="s">
         <v>266</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -5350,32 +6869,34 @@
       <c r="F60" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="33" t="s">
         <v>131</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F61" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G61" s="33" t="s">
         <v>33</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F62" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="H62" s="52"/>
+      <c r="H62" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" s="31">
@@ -5384,10 +6905,12 @@
       <c r="E63" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="H63" s="52"/>
+      <c r="H63" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" s="31">
@@ -5399,32 +6922,34 @@
       <c r="F64" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="33" t="s">
         <v>142</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F65" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="33" t="s">
         <v>145</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H66" s="52"/>
+      <c r="H66" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D67" s="31">
@@ -5433,11 +6958,11 @@
       <c r="E67" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="33" t="s">
         <v>149</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -5450,22 +6975,22 @@
       <c r="F68" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="33" t="s">
         <v>158</v>
       </c>
       <c r="H68" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F69" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="33" t="s">
         <v>33</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -5475,11 +7000,11 @@
       <c r="E70" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="G70" s="33" t="s">
         <v>157</v>
       </c>
       <c r="H70" s="31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I70" s="17">
         <v>846</v>
@@ -5505,7 +7030,7 @@
         <v>160</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -5517,7 +7042,9 @@
       <c r="G73" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="H73" s="52"/>
+      <c r="H73" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C74" s="17"/>
@@ -5534,7 +7061,7 @@
         <v>165</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I74" s="17">
         <v>855</v>
@@ -5548,7 +7075,7 @@
         <v>477</v>
       </c>
       <c r="H75" s="53" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -5560,7 +7087,7 @@
         <v>167</v>
       </c>
       <c r="H76" s="53" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -5578,7 +7105,7 @@
         <v>168</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -5590,7 +7117,7 @@
         <v>172</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -5608,7 +7135,7 @@
         <v>174</v>
       </c>
       <c r="H79" s="53" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -5620,7 +7147,7 @@
         <v>174</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -5637,7 +7164,7 @@
         <v>178</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -5648,7 +7175,7 @@
         <v>179</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -5674,7 +7201,7 @@
         <v>186</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -5685,7 +7212,7 @@
         <v>187</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -5702,10 +7229,10 @@
         <v>191</v>
       </c>
       <c r="H86" s="53" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -5716,7 +7243,7 @@
         <v>192</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -5733,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>196</v>
@@ -5791,7 +7318,7 @@
         <v>202</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -5803,7 +7330,7 @@
         <v>202</v>
       </c>
       <c r="H94" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -5827,10 +7354,10 @@
         <v>204</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -5841,7 +7368,7 @@
         <v>206</v>
       </c>
       <c r="H97" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -5852,7 +7379,7 @@
         <v>227</v>
       </c>
       <c r="H98" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -5866,7 +7393,7 @@
         <v>208</v>
       </c>
       <c r="H99" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -5877,7 +7404,7 @@
         <v>212</v>
       </c>
       <c r="H100" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="101" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -5888,7 +7415,7 @@
         <v>213</v>
       </c>
       <c r="H101" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -5896,13 +7423,13 @@
         <v>210</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H102" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -5916,7 +7443,7 @@
         <v>215</v>
       </c>
       <c r="H103" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -5936,7 +7463,7 @@
         <v>217</v>
       </c>
       <c r="H105" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -5953,7 +7480,7 @@
         <v>222</v>
       </c>
       <c r="H106" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -5964,7 +7491,7 @@
         <v>221</v>
       </c>
       <c r="H107" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
@@ -5984,7 +7511,7 @@
         <v>225</v>
       </c>
       <c r="H109" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
@@ -5999,7 +7526,7 @@
       </c>
       <c r="H110" s="54"/>
       <c r="J110" s="17" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -6018,7 +7545,9 @@
       <c r="G112" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H112" s="54"/>
+      <c r="H112" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="113" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D113" s="31">
@@ -6034,7 +7563,7 @@
         <v>234</v>
       </c>
       <c r="H113" s="31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I113" s="17">
         <v>859</v>
@@ -6047,7 +7576,9 @@
       <c r="G114" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="H114" s="52"/>
+      <c r="H114" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H115" s="31"/>
@@ -6072,7 +7603,7 @@
         <v>239</v>
       </c>
       <c r="H116" s="31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I116" s="17">
         <v>859</v>
@@ -6085,7 +7616,9 @@
       <c r="G117" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="H117" s="52"/>
+      <c r="H117" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="118" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D118" s="31">
@@ -6097,7 +7630,9 @@
       <c r="G118" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="H118" s="52"/>
+      <c r="H118" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H119" s="31"/>
@@ -6121,7 +7656,9 @@
       <c r="G120" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="H120" s="52"/>
+      <c r="H120" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F121" s="17" t="s">
@@ -6146,7 +7683,7 @@
         <v>260</v>
       </c>
       <c r="H122" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I122" s="17">
         <v>838</v>
@@ -6160,7 +7697,7 @@
         <v>254</v>
       </c>
       <c r="H123" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -6171,7 +7708,7 @@
         <v>256</v>
       </c>
       <c r="H124" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="43.5" x14ac:dyDescent="0.25">
@@ -6188,7 +7725,7 @@
         <v>259</v>
       </c>
       <c r="H125" s="53" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -6199,7 +7736,7 @@
         <v>254</v>
       </c>
       <c r="H126" s="53" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
@@ -6210,7 +7747,7 @@
         <v>256</v>
       </c>
       <c r="H127" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -6226,7 +7763,9 @@
       <c r="G128" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H128" s="52"/>
+      <c r="H128" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F129" s="17" t="s">
@@ -6235,7 +7774,9 @@
       <c r="G129" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="52"/>
+      <c r="H129" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D130" s="31">
@@ -6250,7 +7791,9 @@
       <c r="G130" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H130" s="52"/>
+      <c r="H130" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F131" s="17" t="s">
@@ -6259,7 +7802,9 @@
       <c r="G131" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H131" s="52"/>
+      <c r="H131" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F132" s="17" t="s">
@@ -6268,7 +7813,9 @@
       <c r="G132" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H132" s="52"/>
+      <c r="H132" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F133" s="17" t="s">
@@ -6278,7 +7825,7 @@
         <v>86</v>
       </c>
       <c r="H133" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
@@ -6304,7 +7851,7 @@
         <v>282</v>
       </c>
       <c r="H135" s="31" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
@@ -6315,18 +7862,18 @@
         <v>282</v>
       </c>
       <c r="H136" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="137" spans="2:8" ht="29" x14ac:dyDescent="0.25">
       <c r="F137" s="17" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H137" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
@@ -6337,7 +7884,7 @@
         <v>282</v>
       </c>
       <c r="H138" s="31" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
@@ -6360,7 +7907,7 @@
         <v>263</v>
       </c>
       <c r="H140" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -6374,7 +7921,7 @@
         <v>265</v>
       </c>
       <c r="H141" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -6391,7 +7938,7 @@
         <v>270</v>
       </c>
       <c r="H142" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -6402,7 +7949,7 @@
         <v>271</v>
       </c>
       <c r="H143" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
@@ -6419,16 +7966,16 @@
         <v>1</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F145" s="17" t="s">
         <v>287</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H145" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I145" s="17">
         <v>868</v>
@@ -6441,10 +7988,10 @@
         <v>285</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H146" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
@@ -6464,10 +8011,10 @@
         <v>288</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H148" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -6477,10 +8024,10 @@
         <v>285</v>
       </c>
       <c r="G149" s="17" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="H149" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -6494,7 +8041,7 @@
         <v>290</v>
       </c>
       <c r="H150" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
@@ -6520,7 +8067,7 @@
         <v>292</v>
       </c>
       <c r="H152" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
@@ -6532,7 +8079,7 @@
         <v>294</v>
       </c>
       <c r="H153" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -6540,7 +8087,7 @@
         <v>2</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F154" s="17" t="s">
         <v>196</v>
@@ -6549,7 +8096,7 @@
         <v>298</v>
       </c>
       <c r="H154" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -6561,7 +8108,7 @@
         <v>299</v>
       </c>
       <c r="H155" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -6578,7 +8125,7 @@
         <v>293</v>
       </c>
       <c r="H156" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
@@ -6589,7 +8136,7 @@
         <v>297</v>
       </c>
       <c r="H157" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -6597,7 +8144,7 @@
         <v>4</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F158" s="17" t="s">
         <v>196</v>
@@ -6606,7 +8153,7 @@
         <v>298</v>
       </c>
       <c r="H158" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
@@ -6617,7 +8164,7 @@
         <v>299</v>
       </c>
       <c r="H159" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -6643,7 +8190,7 @@
         <v>305</v>
       </c>
       <c r="H161" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -6654,7 +8201,7 @@
         <v>306</v>
       </c>
       <c r="H162" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -6665,7 +8212,7 @@
         <v>307</v>
       </c>
       <c r="H163" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="29" x14ac:dyDescent="0.25">
@@ -6682,7 +8229,7 @@
         <v>311</v>
       </c>
       <c r="H164" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -6693,7 +8240,7 @@
         <v>312</v>
       </c>
       <c r="H165" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -6705,45 +8252,45 @@
         <v>223</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D167" s="31">
         <v>1</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F167" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="G167" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="G167" s="17" t="s">
-        <v>624</v>
-      </c>
       <c r="H167" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="29" x14ac:dyDescent="0.25">
       <c r="A168" s="51"/>
       <c r="F168" s="17" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H168" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F169" s="33" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H169" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I169" s="17">
         <v>871</v>
@@ -6789,7 +8336,7 @@
         <v>512</v>
       </c>
       <c r="H173" s="31" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -6800,7 +8347,7 @@
         <v>513</v>
       </c>
       <c r="H174" s="31" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="I174" s="17">
         <v>861</v>
@@ -6814,7 +8361,7 @@
         <v>513</v>
       </c>
       <c r="H175" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6825,7 +8372,7 @@
         <v>513</v>
       </c>
       <c r="H176" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="177" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -6842,7 +8389,7 @@
         <v>518</v>
       </c>
       <c r="H177" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
@@ -6853,7 +8400,7 @@
         <v>516</v>
       </c>
       <c r="H178" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
@@ -6861,10 +8408,10 @@
         <v>517</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>521</v>
+        <v>766</v>
       </c>
       <c r="H179" s="31" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
@@ -6875,43 +8422,43 @@
         <v>519</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H180" s="53" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="181" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F181" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H181" s="53" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="182" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F182" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H182" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="183" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F183" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G183" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H183" s="53" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
@@ -6921,13 +8468,13 @@
         <v>4</v>
       </c>
       <c r="E184" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G184" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H184" s="31" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I184" s="17">
         <v>864</v>
@@ -6939,12 +8486,14 @@
       <c r="D185" s="17"/>
       <c r="E185" s="17"/>
       <c r="F185" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="G185" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="G185" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="H185" s="52"/>
+      <c r="H185" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="17"/>
@@ -6952,12 +8501,14 @@
       <c r="D186" s="17"/>
       <c r="E186" s="17"/>
       <c r="F186" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G186" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="H186" s="52"/>
+        <v>532</v>
+      </c>
+      <c r="H186" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="17"/>
@@ -6965,12 +8516,14 @@
       <c r="D187" s="17"/>
       <c r="E187" s="17"/>
       <c r="F187" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G187" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="H187" s="54"/>
+        <v>532</v>
+      </c>
+      <c r="H187" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="17"/>
@@ -6979,13 +8532,13 @@
         <v>5</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G188" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H188" s="31" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I188" s="17">
         <v>861</v>
@@ -6995,10 +8548,10 @@
       <c r="D189" s="17"/>
       <c r="E189" s="17"/>
       <c r="F189" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G189" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H189" s="52"/>
     </row>
@@ -7006,10 +8559,10 @@
       <c r="D190" s="17"/>
       <c r="E190" s="17"/>
       <c r="F190" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G190" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H190" s="52"/>
     </row>
@@ -7017,10 +8570,10 @@
       <c r="D191" s="17"/>
       <c r="E191" s="17"/>
       <c r="F191" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G191" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H191" s="52"/>
     </row>
@@ -7029,76 +8582,76 @@
         <v>6</v>
       </c>
       <c r="E192" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G192" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="G192" s="17" t="s">
-        <v>544</v>
-      </c>
       <c r="H192" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D193" s="17"/>
       <c r="E193" s="17"/>
       <c r="F193" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G193" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H193" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D194" s="17"/>
       <c r="E194" s="17"/>
       <c r="F194" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G194" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H194" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D195" s="17"/>
       <c r="E195" s="17"/>
       <c r="F195" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G195" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H195" s="53" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E196" s="17"/>
       <c r="F196" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G196" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H196" s="53" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E197" s="17"/>
       <c r="F197" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G197" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H197" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="198" spans="4:8" ht="29" x14ac:dyDescent="0.25">
@@ -7106,62 +8659,62 @@
         <v>7</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G198" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H198" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="199" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D199" s="17"/>
       <c r="E199" s="17"/>
       <c r="F199" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G199" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H199" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="200" spans="4:8" ht="29" x14ac:dyDescent="0.25">
       <c r="E200" s="17"/>
       <c r="F200" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H200" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="201" spans="4:8" ht="29" x14ac:dyDescent="0.25">
       <c r="E201" s="17"/>
       <c r="F201" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="G201" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="G201" s="17" t="s">
-        <v>563</v>
-      </c>
       <c r="H201" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="202" spans="4:8" ht="29" x14ac:dyDescent="0.25">
       <c r="E202" s="17"/>
       <c r="F202" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="G202" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="G202" s="17" t="s">
-        <v>566</v>
-      </c>
       <c r="H202" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.25">
@@ -7169,13 +8722,13 @@
         <v>8</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G203" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H203" s="53" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.25">
@@ -7183,275 +8736,277 @@
         <v>9</v>
       </c>
       <c r="E204" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="G204" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="G204" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="H204" s="52"/>
+      <c r="H204" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D205" s="17"/>
       <c r="E205" s="17"/>
       <c r="F205" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G205" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H205" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E206" s="17"/>
       <c r="F206" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G206" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H206" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E207" s="17"/>
       <c r="F207" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G207" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H207" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E208" s="17"/>
       <c r="F208" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G208" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H208" s="31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D209" s="31">
         <v>10</v>
       </c>
       <c r="E209" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="G209" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="G209" s="17" t="s">
-        <v>577</v>
-      </c>
       <c r="H209" s="31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D210" s="31">
         <v>11</v>
       </c>
       <c r="E210" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="G210" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="G210" s="17" t="s">
-        <v>558</v>
-      </c>
       <c r="H210" s="31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D211" s="31">
         <v>12</v>
       </c>
       <c r="E211" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="G211" s="17" t="s">
         <v>554</v>
       </c>
-      <c r="G211" s="17" t="s">
-        <v>555</v>
-      </c>
       <c r="H211" s="31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E212" s="17"/>
       <c r="H212" s="31"/>
     </row>
-    <row r="213" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B213" s="31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D213" s="31">
         <v>1</v>
       </c>
       <c r="E213" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="G213" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="F213" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="G213" s="17" t="s">
-        <v>580</v>
-      </c>
       <c r="H213" s="53" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E214" s="17"/>
       <c r="F214" s="17" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G214" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H214" s="53" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E215" s="17"/>
       <c r="F215" s="17" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G215" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H215" s="53" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E216" s="17"/>
       <c r="F216" s="17" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G216" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H216" s="53" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E217" s="17"/>
       <c r="F217" s="17" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G217" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H217" s="53" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E218" s="17"/>
       <c r="H218" s="31"/>
     </row>
-    <row r="219" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B219" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C219" s="31" t="s">
         <v>582</v>
-      </c>
-      <c r="C219" s="31" t="s">
-        <v>583</v>
       </c>
       <c r="D219" s="31">
         <v>1</v>
       </c>
       <c r="E219" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="G219" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="G219" s="17" t="s">
-        <v>585</v>
-      </c>
       <c r="H219" s="31" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I219" s="17">
         <v>865</v>
       </c>
     </row>
-    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D220" s="31">
         <v>2</v>
       </c>
       <c r="E220" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F220" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="F220" s="17" t="s">
-        <v>587</v>
-      </c>
       <c r="G220" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="H220" s="52"/>
-    </row>
-    <row r="221" spans="2:10" ht="29" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="H220" s="31" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="E221" s="17"/>
       <c r="F221" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="H221" s="52"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="H221" s="31" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E222" s="17"/>
       <c r="F222" s="17" t="s">
+        <v>588</v>
+      </c>
+      <c r="G222" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="G222" s="30" t="s">
-        <v>590</v>
-      </c>
       <c r="H222" s="52"/>
-      <c r="J222" s="30"/>
-    </row>
-    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D223" s="31">
         <v>3</v>
       </c>
       <c r="E223" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="F223" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="G223" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="F223" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="G223" s="17" t="s">
-        <v>596</v>
-      </c>
       <c r="H223" s="31" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="I223" s="17">
         <v>898</v>
       </c>
-      <c r="J223" s="17" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E224" s="17"/>
       <c r="F224" s="17" t="s">
-        <v>595</v>
+        <v>774</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H224" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I224" s="17">
         <v>866</v>
@@ -7463,25 +9018,25 @@
         <v>4</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H225" s="53" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E226" s="17"/>
       <c r="F226" s="17" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H226" s="31"/>
     </row>
@@ -7494,18 +9049,20 @@
         <v>497</v>
       </c>
       <c r="C228" s="31" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D228" s="31">
         <v>1</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H228" s="52"/>
+        <v>599</v>
+      </c>
+      <c r="H228" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E229" s="17"/>
@@ -7513,34 +9070,34 @@
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B230" s="31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C230" s="31" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D230" s="31">
         <v>1</v>
       </c>
       <c r="E230" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="F230" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="G230" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="F230" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="G230" s="17" t="s">
-        <v>608</v>
-      </c>
       <c r="H230" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" spans="2:10" ht="29" x14ac:dyDescent="0.25">
       <c r="E231" s="17"/>
       <c r="F231" s="17" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H231" s="52"/>
     </row>
@@ -7549,13 +9106,13 @@
         <v>2</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H232" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="233" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -7563,13 +9120,13 @@
         <v>3</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H233" s="31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="234" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -7577,13 +9134,13 @@
         <v>4</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H234" s="31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.25">
@@ -7602,14 +9159,14 @@
       <c r="E238" s="17"/>
       <c r="H238" s="31"/>
       <c r="J238" s="17" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E239" s="17"/>
       <c r="H239" s="31"/>
       <c r="J239" s="17" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.25">
@@ -7758,241 +9315,449 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="J1:J83 J86:J1048576">
-    <cfRule type="notContainsBlanks" dxfId="60" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="268" priority="109">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H47 H218:H224 H226:H249">
-    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
+  <conditionalFormatting sqref="H218:H219 H226:H227 H4:H47 H222:H224 H229:H249">
+    <cfRule type="cellIs" dxfId="267" priority="106" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H47 H218:H224 H226:H249">
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+  <conditionalFormatting sqref="H218:H219 H226:H227 H4:H47 H222:H224 H229:H249">
+    <cfRule type="cellIs" dxfId="266" priority="107" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="108" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H74 H77:H78 H80:H85 H87:H101">
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+  <conditionalFormatting sqref="H49:H61 H77:H78 H80:H85 H87:H101 H64:H65 H67:H72 H74">
+    <cfRule type="cellIs" dxfId="264" priority="103" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H74 H77:H78 H80:H85 H87:H101">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+  <conditionalFormatting sqref="H49:H61 H77:H78 H80:H85 H87:H101 H64:H65 H67:H72 H74">
+    <cfRule type="cellIs" dxfId="263" priority="104" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="105" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="100" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="101" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="102" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="97" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="98" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="99" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="94" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="95" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="96" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="91" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="92" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="93" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H115 H117:H132 H134:H179">
-    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+  <conditionalFormatting sqref="H113 H119 H134:H179 H115 H121:H127">
+    <cfRule type="cellIs" dxfId="249" priority="88" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113:H115 H117:H132 H134:H179">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+  <conditionalFormatting sqref="H113 H119 H134:H179 H115 H121:H127">
+    <cfRule type="cellIs" dxfId="248" priority="89" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="90" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="85" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="86" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="87" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H184">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="82" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H184">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="83" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H185:H186">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H185:H186">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="84" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:H212">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="76" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:H212">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="77" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="78" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H213:H217">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="70" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H213:H217">
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="71" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="72" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="67" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="68" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="69" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="64" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="65" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="66" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="61" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="62" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="63" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105:H107">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="58" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105:H107">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="59" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="60" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="55" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="56" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="57" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="52" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="53" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="54" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="180" priority="49" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="178" priority="50" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="51" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="174" priority="46" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="172" priority="47" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="48" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="168" priority="43" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="166" priority="44" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="45" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="162" priority="40" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="160" priority="41" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="42" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H112">
+    <cfRule type="cellIs" dxfId="156" priority="37" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H112">
+    <cfRule type="cellIs" dxfId="154" priority="38" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="cellIs" dxfId="150" priority="34" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114">
+    <cfRule type="cellIs" dxfId="148" priority="35" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="36" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="cellIs" dxfId="144" priority="31" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117">
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="cellIs" dxfId="138" priority="28" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H118">
+    <cfRule type="cellIs" dxfId="136" priority="29" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="30" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120">
+    <cfRule type="cellIs" dxfId="132" priority="25" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H120">
+    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H128">
+    <cfRule type="cellIs" dxfId="124" priority="23" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="24" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="cellIs" dxfId="120" priority="19" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H129">
+    <cfRule type="cellIs" dxfId="118" priority="20" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="21" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="cellIs" dxfId="114" priority="16" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="cellIs" dxfId="112" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="18" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="cellIs" dxfId="108" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="cellIs" dxfId="106" priority="14" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="cellIs" dxfId="102" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H132">
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="12" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H185:H187">
+    <cfRule type="cellIs" dxfId="96" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H185:H187">
+    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="9" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H220:H221">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H220:H221">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H228">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H228">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8006,8 +9771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView topLeftCell="C127" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -8094,7 +9859,7 @@
         <v>318</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8105,7 +9870,7 @@
         <v>318</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8116,7 +9881,7 @@
         <v>322</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8133,7 +9898,7 @@
         <v>318</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8144,7 +9909,7 @@
         <v>318</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8155,7 +9920,7 @@
         <v>322</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8172,7 +9937,7 @@
         <v>322</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8183,7 +9948,7 @@
         <v>322</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8194,7 +9959,7 @@
         <v>322</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8210,7 +9975,9 @@
       <c r="G13" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="17" t="s">
@@ -8219,7 +9986,9 @@
       <c r="G14" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="17" t="s">
@@ -8228,7 +9997,9 @@
       <c r="G15" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H15" s="52"/>
+      <c r="H15" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="17" t="s">
@@ -8263,7 +10034,7 @@
         <v>344</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -8274,7 +10045,7 @@
         <v>344</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -8285,7 +10056,7 @@
         <v>344</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -8296,7 +10067,7 @@
         <v>344</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -8307,13 +10078,13 @@
         <v>344</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I22" s="17">
         <v>872</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -8324,7 +10095,7 @@
         <v>344</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="29" x14ac:dyDescent="0.25">
@@ -8335,7 +10106,7 @@
         <v>344</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -8361,7 +10132,7 @@
         <v>318</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -8372,7 +10143,7 @@
         <v>322</v>
       </c>
       <c r="H27" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -8383,7 +10154,7 @@
         <v>318</v>
       </c>
       <c r="H28" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -8400,7 +10171,7 @@
         <v>318</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -8411,7 +10182,7 @@
         <v>322</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -8422,7 +10193,7 @@
         <v>318</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -8439,7 +10210,7 @@
         <v>322</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -8450,7 +10221,7 @@
         <v>322</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -8461,7 +10232,7 @@
         <v>322</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -8478,7 +10249,7 @@
         <v>322</v>
       </c>
       <c r="H35" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -8489,7 +10260,7 @@
         <v>322</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -8500,7 +10271,7 @@
         <v>322</v>
       </c>
       <c r="H37" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -8517,7 +10288,7 @@
         <v>256</v>
       </c>
       <c r="H38" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -8528,7 +10299,7 @@
         <v>276</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -8539,7 +10310,7 @@
         <v>256</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -8550,7 +10321,7 @@
         <v>85</v>
       </c>
       <c r="H41" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -8562,7 +10333,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D43" s="31">
         <v>1</v>
@@ -8577,7 +10348,7 @@
         <v>344</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -8588,7 +10359,7 @@
         <v>344</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -8599,7 +10370,7 @@
         <v>344</v>
       </c>
       <c r="H45" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -8610,7 +10381,7 @@
         <v>344</v>
       </c>
       <c r="H46" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -8621,7 +10392,7 @@
         <v>344</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -8632,7 +10403,7 @@
         <v>344</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="29" x14ac:dyDescent="0.25">
@@ -8643,7 +10414,7 @@
         <v>344</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -8660,7 +10431,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>315</v>
@@ -8668,7 +10439,9 @@
       <c r="G51" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H51" s="31"/>
+      <c r="H51" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F52" s="17" t="s">
@@ -8677,7 +10450,9 @@
       <c r="G52" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H52" s="31"/>
+      <c r="H52" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F53" s="17" t="s">
@@ -8686,7 +10461,9 @@
       <c r="G53" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H53" s="31"/>
+      <c r="H53" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D54" s="31">
@@ -8701,7 +10478,9 @@
       <c r="G54" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H54" s="31"/>
+      <c r="H54" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F55" s="17" t="s">
@@ -8710,7 +10489,9 @@
       <c r="G55" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H55" s="31"/>
+      <c r="H55" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F56" s="17" t="s">
@@ -8719,7 +10500,9 @@
       <c r="G56" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H56" s="31"/>
+      <c r="H56" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D57" s="31">
@@ -8734,7 +10517,9 @@
       <c r="G57" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H57" s="31"/>
+      <c r="H57" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F58" s="17" t="s">
@@ -8743,7 +10528,9 @@
       <c r="G58" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H58" s="31"/>
+      <c r="H58" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F59" s="17" t="s">
@@ -8752,7 +10539,9 @@
       <c r="G59" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H59" s="31"/>
+      <c r="H59" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D60" s="31">
@@ -8767,7 +10556,9 @@
       <c r="G60" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H60" s="31"/>
+      <c r="H60" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F61" s="17" t="s">
@@ -8776,7 +10567,9 @@
       <c r="G61" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H61" s="31"/>
+      <c r="H61" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F62" s="17" t="s">
@@ -8785,7 +10578,9 @@
       <c r="G62" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H62" s="31"/>
+      <c r="H62" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F63" s="17" t="s">
@@ -8794,7 +10589,9 @@
       <c r="G63" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="31"/>
+      <c r="H63" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H64" s="31"/>
@@ -8818,7 +10615,9 @@
       <c r="G65" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H65" s="31"/>
+      <c r="H65" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F66" s="17" t="s">
@@ -8827,7 +10626,9 @@
       <c r="G66" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H66" s="31"/>
+      <c r="H66" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F67" s="17" t="s">
@@ -8836,7 +10637,9 @@
       <c r="G67" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H67" s="31"/>
+      <c r="H67" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D68" s="31">
@@ -8851,7 +10654,9 @@
       <c r="G68" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H68" s="31"/>
+      <c r="H68" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F69" s="17" t="s">
@@ -8860,7 +10665,9 @@
       <c r="G69" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H69" s="31"/>
+      <c r="H69" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F70" s="17" t="s">
@@ -8869,7 +10676,9 @@
       <c r="G70" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H70" s="31"/>
+      <c r="H70" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D71" s="31">
@@ -8884,7 +10693,9 @@
       <c r="G71" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H71" s="31"/>
+      <c r="H71" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F72" s="17" t="s">
@@ -8893,7 +10704,9 @@
       <c r="G72" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H72" s="31"/>
+      <c r="H72" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F73" s="17" t="s">
@@ -8902,7 +10715,9 @@
       <c r="G73" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H73" s="31"/>
+      <c r="H73" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D74" s="31">
@@ -8917,7 +10732,9 @@
       <c r="G74" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H74" s="31"/>
+      <c r="H74" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F75" s="17" t="s">
@@ -8926,7 +10743,9 @@
       <c r="G75" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H75" s="31"/>
+      <c r="H75" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F76" s="17" t="s">
@@ -8935,7 +10754,9 @@
       <c r="G76" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H76" s="31"/>
+      <c r="H76" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F77" s="17" t="s">
@@ -8944,7 +10765,9 @@
       <c r="G77" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H77" s="31"/>
+      <c r="H77" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F78" s="33"/>
@@ -8964,7 +10787,9 @@
       <c r="G79" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H79" s="31"/>
+      <c r="H79" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F80" s="17" t="s">
@@ -8973,7 +10798,9 @@
       <c r="G80" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H80" s="31"/>
+      <c r="H80" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F81" s="17" t="s">
@@ -8982,7 +10809,9 @@
       <c r="G81" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H81" s="31"/>
+      <c r="H81" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D82" s="31">
@@ -8997,7 +10826,9 @@
       <c r="G82" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H82" s="31"/>
+      <c r="H82" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F83" s="17" t="s">
@@ -9006,7 +10837,9 @@
       <c r="G83" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H83" s="31"/>
+      <c r="H83" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F84" s="17" t="s">
@@ -9015,7 +10848,9 @@
       <c r="G84" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H84" s="31"/>
+      <c r="H84" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D85" s="31">
@@ -9030,7 +10865,9 @@
       <c r="G85" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H85" s="31"/>
+      <c r="H85" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F86" s="17" t="s">
@@ -9039,7 +10876,9 @@
       <c r="G86" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H86" s="31"/>
+      <c r="H86" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F87" s="17" t="s">
@@ -9048,7 +10887,9 @@
       <c r="G87" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H87" s="31"/>
+      <c r="H87" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D88" s="31">
@@ -9063,7 +10904,9 @@
       <c r="G88" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H88" s="31"/>
+      <c r="H88" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F89" s="17" t="s">
@@ -9072,7 +10915,9 @@
       <c r="G89" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H89" s="31"/>
+      <c r="H89" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F90" s="17" t="s">
@@ -9081,7 +10926,9 @@
       <c r="G90" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="H90" s="31"/>
+      <c r="H90" s="53" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E91" s="18" t="s">
@@ -9093,7 +10940,9 @@
       <c r="G91" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H91" s="31"/>
+      <c r="H91" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F92" s="17" t="s">
@@ -9102,7 +10951,9 @@
       <c r="G92" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H92" s="31"/>
+      <c r="H92" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F93" s="17" t="s">
@@ -9111,7 +10962,9 @@
       <c r="G93" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="H93" s="31"/>
+      <c r="H93" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F94" s="17" t="s">
@@ -9120,7 +10973,9 @@
       <c r="G94" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H94" s="31"/>
+      <c r="H94" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H95" s="31"/>
@@ -9142,7 +10997,9 @@
       <c r="G96" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="H96" s="31"/>
+      <c r="H96" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H97" s="31"/>
@@ -9177,26 +11034,26 @@
         <v>410</v>
       </c>
       <c r="H99" s="31" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="I99" s="17">
         <v>874</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="G100" s="30" t="s">
+      <c r="G100" s="72" t="s">
         <v>419</v>
       </c>
       <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="G101" s="17" t="s">
+      <c r="G101" s="71" t="s">
         <v>420</v>
       </c>
       <c r="H101" s="52"/>
@@ -9263,7 +11120,7 @@
         <v>415</v>
       </c>
       <c r="H107" s="31" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I107" s="17">
         <v>876</v>
@@ -9291,7 +11148,9 @@
       <c r="G109" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="H109" s="52"/>
+      <c r="H109" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F110" s="17" t="s">
@@ -9300,7 +11159,9 @@
       <c r="G110" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="H110" s="52"/>
+      <c r="H110" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F111" s="17" t="s">
@@ -9309,7 +11170,9 @@
       <c r="G111" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="H111" s="52"/>
+      <c r="H111" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F112" s="17" t="s">
@@ -9318,7 +11181,9 @@
       <c r="G112" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="H112" s="52"/>
+      <c r="H112" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F113" s="17" t="s">
@@ -9327,7 +11192,9 @@
       <c r="G113" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="H113" s="52"/>
+      <c r="H113" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D114" s="31">
@@ -9339,7 +11206,9 @@
       <c r="G114" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="H114" s="52"/>
+      <c r="H114" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H115" s="31"/>
@@ -9376,7 +11245,7 @@
         <v>359</v>
       </c>
       <c r="H117" s="31" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -9399,7 +11268,7 @@
         <v>362</v>
       </c>
       <c r="H119" s="31" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I119" s="17">
         <v>874</v>
@@ -9419,7 +11288,7 @@
         <v>365</v>
       </c>
       <c r="H120" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I120" s="17">
         <v>875</v>
@@ -9435,7 +11304,7 @@
         <v>429</v>
       </c>
       <c r="H121" s="31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -9446,7 +11315,7 @@
         <v>368</v>
       </c>
       <c r="H122" s="31" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -9471,7 +11340,9 @@
       <c r="G124" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="H124" s="52"/>
+      <c r="H124" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F125" s="17" t="s">
@@ -9480,7 +11351,9 @@
       <c r="G125" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="H125" s="52"/>
+      <c r="H125" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F126" s="17" t="s">
@@ -9489,7 +11362,9 @@
       <c r="G126" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="H126" s="52"/>
+      <c r="H126" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="127" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D127" s="31">
@@ -9501,7 +11376,9 @@
       <c r="G127" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="H127" s="52"/>
+      <c r="H127" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
@@ -9539,7 +11416,7 @@
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
       <c r="E131" s="17"/>
-      <c r="H131" s="52"/>
+      <c r="H131" s="46"/>
     </row>
     <row r="132" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="B132" s="31" t="s">
@@ -9557,14 +11434,16 @@
       <c r="G132" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="H132" s="52"/>
+      <c r="H132" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="133" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="D133" s="31">
         <v>2</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F133" s="17" t="s">
         <v>385</v>
@@ -9572,7 +11451,9 @@
       <c r="G133" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="H133" s="52"/>
+      <c r="H133" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F134" s="17" t="s">
@@ -9581,7 +11462,9 @@
       <c r="G134" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="H134" s="52"/>
+      <c r="H134" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C135" s="47"/>
@@ -9607,7 +11490,7 @@
         <v>432</v>
       </c>
       <c r="H136" s="31" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
@@ -9627,7 +11510,7 @@
         <v>420</v>
       </c>
       <c r="H138" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
@@ -9654,7 +11537,7 @@
         <v>435</v>
       </c>
       <c r="H140" s="31" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I140" s="17">
         <v>876</v>
@@ -9772,7 +11655,7 @@
         <v>441</v>
       </c>
       <c r="H150" s="31" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
@@ -9783,7 +11666,7 @@
         <v>442</v>
       </c>
       <c r="H151" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="152" spans="2:9" ht="29" x14ac:dyDescent="0.25">
@@ -9794,7 +11677,7 @@
         <v>443</v>
       </c>
       <c r="H152" s="31" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
@@ -9805,7 +11688,7 @@
         <v>397</v>
       </c>
       <c r="H153" s="31" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
@@ -9819,7 +11702,7 @@
         <v>472</v>
       </c>
       <c r="H154" s="31" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I154" s="17">
         <v>882</v>
@@ -9880,7 +11763,7 @@
         <v>449</v>
       </c>
       <c r="H159" s="31" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -9891,7 +11774,7 @@
         <v>450</v>
       </c>
       <c r="H160" s="31" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -9917,7 +11800,7 @@
         <v>455</v>
       </c>
       <c r="H162" s="31" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
@@ -9936,7 +11819,9 @@
       <c r="G164" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="H164" s="31"/>
+      <c r="H164" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D165" s="31">
@@ -9975,7 +11860,9 @@
       <c r="G167" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="H167" s="31"/>
+      <c r="H167" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F168" s="17" t="s">
@@ -9984,7 +11871,9 @@
       <c r="G168" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="H168" s="31"/>
+      <c r="H168" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H169" s="31"/>
@@ -10008,7 +11897,9 @@
       <c r="G170" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="H170" s="52"/>
+      <c r="H170" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F171" s="17" t="s">
@@ -10017,7 +11908,9 @@
       <c r="G171" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="H171" s="52"/>
+      <c r="H171" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F172" s="17" t="s">
@@ -10026,7 +11919,9 @@
       <c r="G172" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="H172" s="52"/>
+      <c r="H172" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F173" s="17" t="s">
@@ -10035,7 +11930,9 @@
       <c r="G173" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="H173" s="52"/>
+      <c r="H173" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F174" s="17" t="s">
@@ -10044,7 +11941,9 @@
       <c r="G174" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="H174" s="52"/>
+      <c r="H174" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
@@ -10082,7 +11981,7 @@
         <v>406</v>
       </c>
       <c r="H177" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
@@ -10092,7 +11991,9 @@
       <c r="G178" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="H178" s="31"/>
+      <c r="H178" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F179" s="17" t="s">
@@ -10101,7 +12002,9 @@
       <c r="G179" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="H179" s="31"/>
+      <c r="H179" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F180" s="17" t="s">
@@ -10110,7 +12013,9 @@
       <c r="G180" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="H180" s="31"/>
+      <c r="H180" s="31" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="181" spans="2:9" ht="29" x14ac:dyDescent="0.25">
       <c r="F181" s="17" t="s">
@@ -10120,7 +12025,7 @@
         <v>496</v>
       </c>
       <c r="H181" s="31" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
@@ -10146,7 +12051,7 @@
         <v>502</v>
       </c>
       <c r="H183" s="31" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="I183" s="17">
         <v>887</v>
@@ -10160,7 +12065,7 @@
         <v>503</v>
       </c>
       <c r="H184" s="31" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
@@ -10199,29 +12104,43 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H4:H185">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H185">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10233,25 +12152,25 @@
   <sheetData>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="62" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" s="64"/>
       <c r="B3" s="64" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="E3">
         <v>888</v>
@@ -10260,140 +12179,168 @@
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="64"/>
       <c r="B4" s="64" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>741</v>
+        <v>736</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="65"/>
       <c r="B5" s="65" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>743</v>
+        <v>738</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
       <c r="B6" s="65" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>745</v>
+        <v>740</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
       <c r="B7" s="65" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>747</v>
+        <v>742</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="66" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="65"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:5" s="66" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="65"/>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="67" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>737</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
       <c r="B11" s="65" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>749</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
       <c r="B12" s="65" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>751</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
       <c r="B13" s="65" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>753</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
       <c r="B14" s="65" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>755</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
       <c r="B15" s="65" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>757</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>737</v>
-      </c>
-      <c r="D18" s="64"/>
+        <v>732</v>
+      </c>
+      <c r="D18" s="31"/>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="64"/>
-      <c r="B19" s="64" t="s">
-        <v>759</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>760</v>
-      </c>
-      <c r="D19" s="64"/>
+      <c r="B19" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>754</v>
+      </c>
+      <c r="D19" s="31"/>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.45">
       <c r="A20" s="65"/>
       <c r="B20" s="65" t="s">
-        <v>710</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>761</v>
-      </c>
-      <c r="D20" s="65"/>
+        <v>706</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>755</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>631</v>
+      </c>
       <c r="E20" s="65"/>
       <c r="F20" s="65"/>
       <c r="G20" s="66"/>
@@ -10402,12 +12349,14 @@
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="65"/>
       <c r="B21" s="65" t="s">
-        <v>712</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>762</v>
-      </c>
-      <c r="D21" s="65"/>
+        <v>708</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>756</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>771</v>
+      </c>
       <c r="E21" s="65"/>
       <c r="F21" s="65"/>
       <c r="G21" s="66"/>
@@ -10416,12 +12365,14 @@
     <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="65"/>
       <c r="B22" s="65" t="s">
-        <v>714</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>763</v>
-      </c>
-      <c r="D22" s="65"/>
+        <v>710</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>757</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>771</v>
+      </c>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
       <c r="G22" s="66"/>
@@ -10430,56 +12381,60 @@
     <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="65"/>
       <c r="B23" s="65" t="s">
-        <v>716</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>764</v>
-      </c>
-      <c r="D23" s="65"/>
+        <v>769</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>758</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>631</v>
+      </c>
       <c r="E23" s="65"/>
       <c r="F23" s="65"/>
       <c r="G23" s="66"/>
       <c r="H23" s="66"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.45">
       <c r="A24" s="65"/>
       <c r="B24" s="65" t="s">
-        <v>765</v>
-      </c>
-      <c r="C24" s="65" t="s">
-        <v>766</v>
-      </c>
-      <c r="D24" s="65"/>
+        <v>759</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>768</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>631</v>
+      </c>
       <c r="E24" s="65"/>
       <c r="F24" s="65"/>
       <c r="G24" s="66"/>
       <c r="H24" s="66"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="66"/>
       <c r="H25" s="66"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
       <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
       <c r="G26" s="66"/>
       <c r="H26" s="66"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="66"/>
@@ -10527,16 +12482,29 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="cellIs" dxfId="210" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="cellIs" dxfId="209" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D25">
+    <cfRule type="cellIs" dxfId="207" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D25">
+    <cfRule type="cellIs" dxfId="206" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10544,7 +12512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -10570,7 +12538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
@@ -10597,7 +12565,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
@@ -10618,31 +12586,31 @@
         <v>16</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>688</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>689</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>690</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>691</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>692</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
@@ -10653,19 +12621,19 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -10678,19 +12646,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -10703,19 +12671,19 @@
     </row>
     <row r="5" spans="1:18" s="60" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="58" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
@@ -10728,19 +12696,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="57" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F6" s="61"/>
       <c r="G6" s="61"/>
@@ -10753,19 +12721,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="57" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C7" s="57" t="s">
+        <v>701</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>704</v>
+      </c>
+      <c r="E7" s="57" t="s">
         <v>705</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>708</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>709</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
